--- a/data/output/FV2404_FV2310/IFTSTA/21037.xlsx
+++ b/data/output/FV2404_FV2310/IFTSTA/21037.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3360" uniqueCount="232">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3381" uniqueCount="232">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -804,6 +804,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U146" totalsRowShown="0">
+  <autoFilter ref="A1:U146"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1093,7 +1123,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -8246,5 +8279,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/IFTSTA/21037.xlsx
+++ b/data/output/FV2404_FV2310/IFTSTA/21037.xlsx
@@ -1673,7 +1673,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2695,7 +2695,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -3007,7 +3007,7 @@
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N32" s="2" t="s">
@@ -3579,7 +3579,7 @@
         <v>218</v>
       </c>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -3725,7 +3725,7 @@
         <v>220</v>
       </c>
       <c r="L42" s="4"/>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N42" s="2" t="s">
@@ -4097,7 +4097,7 @@
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -4259,7 +4259,7 @@
       </c>
       <c r="K52" s="2"/>
       <c r="L52" s="4"/>
-      <c r="M52" s="2" t="s">
+      <c r="M52" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N52" s="2" t="s">
@@ -4423,7 +4423,7 @@
         <v>223</v>
       </c>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -4585,7 +4585,7 @@
         <v>225</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="4"/>
-      <c r="M61" s="2" t="s">
+      <c r="M61" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N61" s="2" t="s">
@@ -4929,7 +4929,7 @@
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -5247,7 +5247,7 @@
         <v>225</v>
       </c>
       <c r="L71" s="4"/>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N71" s="2" t="s">
@@ -5395,7 +5395,7 @@
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -5551,7 +5551,7 @@
         <v>227</v>
       </c>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -5927,7 +5927,7 @@
       </c>
       <c r="K84" s="2"/>
       <c r="L84" s="4"/>
-      <c r="M84" s="2" t="s">
+      <c r="M84" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N84" s="2" t="s">
@@ -6089,7 +6089,7 @@
       </c>
       <c r="K87" s="2"/>
       <c r="L87" s="4"/>
-      <c r="M87" s="2" t="s">
+      <c r="M87" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N87" s="2" t="s">
@@ -6253,7 +6253,7 @@
         <v>223</v>
       </c>
       <c r="L90" s="4"/>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -6415,7 +6415,7 @@
         <v>229</v>
       </c>
       <c r="L93" s="4"/>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -6559,7 +6559,7 @@
       </c>
       <c r="K96" s="2"/>
       <c r="L96" s="4"/>
-      <c r="M96" s="2" t="s">
+      <c r="M96" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N96" s="2" t="s">
@@ -6759,7 +6759,7 @@
       </c>
       <c r="K100" s="2"/>
       <c r="L100" s="4"/>
-      <c r="M100" s="2" t="s">
+      <c r="M100" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N100" s="2" t="s">
@@ -7077,7 +7077,7 @@
         <v>229</v>
       </c>
       <c r="L106" s="4"/>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="K109" s="2"/>
       <c r="L109" s="4"/>
-      <c r="M109" s="2" t="s">
+      <c r="M109" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N109" s="2" t="s">
@@ -7381,7 +7381,7 @@
         <v>230</v>
       </c>
       <c r="L112" s="4"/>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -7757,7 +7757,7 @@
       </c>
       <c r="K119" s="2"/>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -7919,7 +7919,7 @@
       </c>
       <c r="K122" s="2"/>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -8079,7 +8079,7 @@
         <v>232</v>
       </c>
       <c r="L125" s="4"/>
-      <c r="M125" s="2" t="s">
+      <c r="M125" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N125" s="2" t="s">
@@ -8223,7 +8223,7 @@
       </c>
       <c r="K128" s="2"/>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -8423,7 +8423,7 @@
       </c>
       <c r="K132" s="2"/>
       <c r="L132" s="4"/>
-      <c r="M132" s="2" t="s">
+      <c r="M132" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N132" s="2" t="s">
@@ -8741,7 +8741,7 @@
         <v>232</v>
       </c>
       <c r="L138" s="4"/>
-      <c r="M138" s="2" t="s">
+      <c r="M138" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N138" s="2" t="s">
@@ -8889,7 +8889,7 @@
       </c>
       <c r="K141" s="2"/>
       <c r="L141" s="4"/>
-      <c r="M141" s="2" t="s">
+      <c r="M141" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N141" s="2" t="s">
@@ -9045,7 +9045,7 @@
       </c>
       <c r="K144" s="2"/>
       <c r="L144" s="4"/>
-      <c r="M144" s="2" t="s">
+      <c r="M144" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N144" s="2"/>
